--- a/assets/files/Filler.xlsx
+++ b/assets/files/Filler.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Documents\Scheduling\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/vc_sulesh_shukla_zee_com/Documents/Desktop/Bulk Upload/Bulk Import File Format/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FCB3B96A-7771-40CD-ACE2-453BFDDC0EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12CFBB0C-A2DB-40DE-9C18-DCCAD43F0444}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Filler" sheetId="1" r:id="rId1"/>
     <sheet name="Instruction" sheetId="3" r:id="rId2"/>
     <sheet name="Master" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="AFRICAS">Master!$E$3:$E$11</definedName>
@@ -23,7 +23,7 @@
     <definedName name="ASIA">Master!$B$3:$B$159</definedName>
     <definedName name="EUROPE">Master!$C$3:$C$17</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="178">
   <si>
     <t>Location</t>
   </si>
@@ -557,49 +557,37 @@
   </si>
   <si>
     <t>Any Tab name or Header change is not allowed, it will impact on ID creation.</t>
-  </si>
-  <si>
-    <t>Duration to be provided in Seconds only. Ex- for 1 minute duration please put 60 &amp; for 30 second duration put as 30.</t>
-  </si>
-  <si>
-    <t>ZEE ENTERTAINMENT ENTERPRISES LTD.</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Test 3</t>
-  </si>
-  <si>
-    <t>Test 2</t>
-  </si>
-  <si>
-    <t>ZEE INDIA TV</t>
-  </si>
-  <si>
-    <t>Filler 11</t>
-  </si>
-  <si>
-    <t>Remark</t>
   </si>
   <si>
     <t>DURATION
 (In Sec.)</t>
   </si>
   <si>
-    <t>HDS</t>
-  </si>
-  <si>
-    <t>13Nov2023 60</t>
+    <t>Duration to be provided in Seconds only. Ex- for 1 minute duration please put 60 &amp; for 30 second duration put as 30.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>ZEE INDIA TV</t>
+  </si>
+  <si>
+    <t>07Dec2023 200</t>
+  </si>
+  <si>
+    <t>07Dec2023 201</t>
+  </si>
+  <si>
+    <t>07Dec2023 202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-14009]dd/mm/yyyy;@"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,7 +665,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -741,11 +729,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF92D050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF92D050"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF92D050"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF92D050"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -756,11 +759,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
@@ -811,8 +820,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -830,11 +839,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -856,6 +879,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1154,1732 +1181,4340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O267"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="24" customWidth="1"/>
     <col min="7" max="7" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="18" t="s">
+      <c r="F1" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E2" s="19" t="str">
+        <f t="shared" ref="E2:E66" si="0">IF(ISBLANK(D2),"",D2)</f>
+        <v>07Dec2023 200</v>
+      </c>
+      <c r="F2" s="23">
+        <v>10</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I2" s="19" t="str">
+        <f>IF(ISBLANK(H2),"","GENERAL")</f>
+        <v>GENERAL</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M2" s="25">
+        <v>45214</v>
+      </c>
+      <c r="N2" s="25">
+        <v>45217</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07Dec2023 201</v>
+      </c>
+      <c r="F3" s="23">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="I3" s="19" t="str">
+        <f t="shared" ref="I3:I66" si="1">IF(ISBLANK(H3),"","GENERAL")</f>
+        <v>GENERAL</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" s="25">
+        <v>45217</v>
+      </c>
+      <c r="N3" s="25">
+        <v>45218</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F2" s="22">
-        <v>300</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="E4" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>07Dec2023 202</v>
+      </c>
+      <c r="F4" s="23">
+        <v>5</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I4" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v>GENERAL</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L4" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="M2" s="25">
-        <v>45218</v>
-      </c>
-      <c r="N2" s="25">
-        <v>45953</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="M4" s="26">
+        <v>45214</v>
+      </c>
+      <c r="N4" s="26">
+        <v>45215</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="str">
+        <f t="shared" ref="C5:C66" si="2">IF(ISBLANK(B5),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
+        <v/>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F6" s="23"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F11" s="23"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="I45" s="3"/>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="I46" s="3"/>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="I47" s="3"/>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="I48" s="3"/>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="I49" s="3"/>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="I50" s="3"/>
-    </row>
-    <row r="51" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="I51" s="3"/>
-    </row>
-    <row r="52" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="I52" s="3"/>
-    </row>
-    <row r="53" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="I53" s="3"/>
-    </row>
-    <row r="54" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="I54" s="3"/>
-    </row>
-    <row r="55" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="I55" s="3"/>
-    </row>
-    <row r="56" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="I60" s="3"/>
-    </row>
-    <row r="61" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="I61" s="3"/>
-    </row>
-    <row r="62" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="I62" s="3"/>
-    </row>
-    <row r="63" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="I64" s="3"/>
-    </row>
-    <row r="65" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="I66" s="3"/>
-    </row>
-    <row r="67" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="I67" s="3"/>
-    </row>
-    <row r="68" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="I68" s="3"/>
-    </row>
-    <row r="69" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="I69" s="3"/>
-    </row>
-    <row r="70" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="I70" s="3"/>
-    </row>
-    <row r="71" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="I71" s="3"/>
-    </row>
-    <row r="72" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="I72" s="3"/>
-    </row>
-    <row r="73" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="I73" s="3"/>
-    </row>
-    <row r="74" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="I74" s="3"/>
-    </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="I75" s="3"/>
-    </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="I76" s="3"/>
-    </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="3"/>
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="I86" s="3"/>
-    </row>
-    <row r="87" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="I87" s="3"/>
-    </row>
-    <row r="88" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="I88" s="3"/>
-    </row>
-    <row r="89" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="I89" s="3"/>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="I90" s="3"/>
-    </row>
-    <row r="91" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="I91" s="3"/>
-    </row>
-    <row r="92" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="I92" s="3"/>
-    </row>
-    <row r="93" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="I93" s="3"/>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="I94" s="3"/>
-    </row>
-    <row r="95" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="I95" s="3"/>
-    </row>
-    <row r="96" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="I96" s="3"/>
-    </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="I98" s="3"/>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="I99" s="3"/>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="I100" s="3"/>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="I101" s="3"/>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="I102" s="3"/>
-    </row>
-    <row r="103" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="I103" s="3"/>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
-      <c r="I104" s="3"/>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="I105" s="3"/>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="I106" s="3"/>
-    </row>
-    <row r="107" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="I107" s="3"/>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="I108" s="3"/>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="I109" s="3"/>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="I110" s="3"/>
-    </row>
-    <row r="111" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="I111" s="3"/>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="I112" s="3"/>
-    </row>
-    <row r="113" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="I113" s="3"/>
-    </row>
-    <row r="114" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="I114" s="3"/>
-    </row>
-    <row r="115" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="I115" s="3"/>
-    </row>
-    <row r="116" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="I116" s="3"/>
-    </row>
-    <row r="117" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="I117" s="3"/>
-    </row>
-    <row r="118" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="I118" s="3"/>
-    </row>
-    <row r="119" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="I119" s="3"/>
-    </row>
-    <row r="120" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="I120" s="3"/>
-    </row>
-    <row r="121" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="I121" s="3"/>
-    </row>
-    <row r="122" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="I122" s="3"/>
-    </row>
-    <row r="123" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="I123" s="3"/>
-    </row>
-    <row r="124" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="I124" s="3"/>
-    </row>
-    <row r="125" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="I125" s="3"/>
-    </row>
-    <row r="126" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="I126" s="3"/>
-    </row>
-    <row r="127" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="I127" s="3"/>
-    </row>
-    <row r="128" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="I128" s="3"/>
-    </row>
-    <row r="129" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="I129" s="3"/>
-    </row>
-    <row r="130" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="I130" s="3"/>
-    </row>
-    <row r="131" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="I131" s="3"/>
-    </row>
-    <row r="132" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="I132" s="3"/>
-    </row>
-    <row r="133" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="I133" s="3"/>
-    </row>
-    <row r="134" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="I134" s="3"/>
-    </row>
-    <row r="135" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="I135" s="3"/>
-    </row>
-    <row r="136" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="I136" s="3"/>
-    </row>
-    <row r="137" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="I137" s="3"/>
-    </row>
-    <row r="138" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="I138" s="3"/>
-    </row>
-    <row r="139" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="I139" s="3"/>
-    </row>
-    <row r="140" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="I140" s="3"/>
-    </row>
-    <row r="141" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-      <c r="I141" s="3"/>
-    </row>
-    <row r="142" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-      <c r="I142" s="3"/>
-    </row>
-    <row r="143" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-      <c r="I143" s="3"/>
-    </row>
-    <row r="144" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="I144" s="3"/>
-    </row>
-    <row r="145" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-      <c r="I145" s="3"/>
-    </row>
-    <row r="146" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="I146" s="3"/>
-    </row>
-    <row r="147" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-      <c r="I147" s="3"/>
-    </row>
-    <row r="148" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="I148" s="3"/>
-    </row>
-    <row r="149" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="I149" s="3"/>
-    </row>
-    <row r="150" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="I150" s="3"/>
-    </row>
-    <row r="151" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="I151" s="3"/>
-    </row>
-    <row r="152" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="I152" s="3"/>
-    </row>
-    <row r="153" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C153" s="3"/>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
-      <c r="I153" s="3"/>
-    </row>
-    <row r="154" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C154" s="3"/>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-      <c r="I154" s="3"/>
-    </row>
-    <row r="155" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-      <c r="I155" s="3"/>
-    </row>
-    <row r="156" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-      <c r="I156" s="3"/>
-    </row>
-    <row r="157" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C157" s="3"/>
-      <c r="E157" s="3"/>
-      <c r="F157" s="3"/>
-      <c r="I157" s="3"/>
-    </row>
-    <row r="158" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="I158" s="3"/>
-    </row>
-    <row r="159" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="I159" s="3"/>
-    </row>
-    <row r="160" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="I169" s="3"/>
-    </row>
-    <row r="170" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="I170" s="3"/>
-    </row>
-    <row r="171" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="I172" s="3"/>
-    </row>
-    <row r="173" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="I173" s="3"/>
-    </row>
-    <row r="174" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="I174" s="3"/>
-    </row>
-    <row r="175" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="I175" s="3"/>
-    </row>
-    <row r="176" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="I176" s="3"/>
-    </row>
-    <row r="177" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="I177" s="3"/>
-    </row>
-    <row r="178" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="I178" s="3"/>
-    </row>
-    <row r="179" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="I179" s="3"/>
-    </row>
-    <row r="180" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="I180" s="3"/>
-    </row>
-    <row r="181" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="I181" s="3"/>
-    </row>
-    <row r="182" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="I182" s="3"/>
-    </row>
-    <row r="183" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="I183" s="3"/>
-    </row>
-    <row r="184" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="I184" s="3"/>
-    </row>
-    <row r="185" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="I185" s="3"/>
-    </row>
-    <row r="186" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="I188" s="3"/>
-    </row>
-    <row r="189" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="I189" s="3"/>
-    </row>
-    <row r="190" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="I191" s="3"/>
-    </row>
-    <row r="192" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="I197" s="3"/>
-    </row>
-    <row r="198" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="I206" s="3"/>
-    </row>
-    <row r="207" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="I210" s="3"/>
-    </row>
-    <row r="211" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="I212" s="3"/>
-    </row>
-    <row r="213" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="I216" s="3"/>
-    </row>
-    <row r="217" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="I220" s="3"/>
-    </row>
-    <row r="221" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="I221" s="3"/>
-    </row>
-    <row r="222" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="I226" s="3"/>
-    </row>
-    <row r="227" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="I227" s="3"/>
-    </row>
-    <row r="228" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="I234" s="3"/>
-    </row>
-    <row r="235" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="I235" s="3"/>
-    </row>
-    <row r="236" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="I236" s="3"/>
-    </row>
-    <row r="237" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="I237" s="3"/>
-    </row>
-    <row r="238" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="I238" s="3"/>
-    </row>
-    <row r="239" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="I239" s="3"/>
-    </row>
-    <row r="240" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="I240" s="3"/>
-    </row>
-    <row r="241" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="I241" s="3"/>
-    </row>
-    <row r="242" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="I242" s="3"/>
-    </row>
-    <row r="243" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="I243" s="3"/>
-    </row>
-    <row r="244" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="I244" s="3"/>
-    </row>
-    <row r="245" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="I245" s="3"/>
-    </row>
-    <row r="246" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="I246" s="3"/>
-    </row>
-    <row r="247" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="I247" s="3"/>
-    </row>
-    <row r="248" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="I248" s="3"/>
-    </row>
-    <row r="249" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="I250" s="3"/>
-    </row>
-    <row r="251" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="I251" s="3"/>
-    </row>
-    <row r="252" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="I252" s="3"/>
-    </row>
-    <row r="253" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="I253" s="3"/>
-    </row>
-    <row r="254" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="I254" s="3"/>
-    </row>
-    <row r="255" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="I255" s="3"/>
-    </row>
-    <row r="256" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="I256" s="3"/>
-    </row>
-    <row r="257" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="I257" s="3"/>
-    </row>
-    <row r="258" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="I258" s="3"/>
-    </row>
-    <row r="259" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="I259" s="3"/>
-    </row>
-    <row r="260" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="I260" s="3"/>
-    </row>
-    <row r="261" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="I261" s="3"/>
-    </row>
-    <row r="262" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="I262" s="3"/>
-    </row>
-    <row r="263" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="I263" s="3"/>
-    </row>
-    <row r="264" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="I264" s="3"/>
-    </row>
-    <row r="265" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="I265" s="3"/>
-    </row>
-    <row r="266" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="I266" s="3"/>
-    </row>
-    <row r="267" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="I267" s="3"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="7"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="23"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="23"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="23"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="23"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="23"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J29" s="7"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="23"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="23"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J31" s="7"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J33" s="7"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J34" s="7"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J35" s="7"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="23"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="23"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J37" s="7"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="E38" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="23"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="E39" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="7"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="23"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="7"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="7"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F42" s="23"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="7"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="18"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F43" s="23"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="7"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D44" s="7"/>
+      <c r="E44" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="7"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D45" s="7"/>
+      <c r="E45" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F45" s="23"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="7"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D46" s="7"/>
+      <c r="E46" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F46" s="23"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="7"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F47" s="23"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="7"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D48" s="7"/>
+      <c r="E48" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F48" s="23"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="7"/>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D49" s="7"/>
+      <c r="E49" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="7"/>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F50" s="23"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="7"/>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F51" s="23"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="7"/>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F52" s="23"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="7"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F53" s="23"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="7"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F54" s="23"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="7"/>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F55" s="23"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="7"/>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F56" s="23"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="7"/>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" s="18"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F57" s="23"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="7"/>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" s="18"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F58" s="23"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="7"/>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" s="18"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F59" s="23"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="7"/>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" s="18"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F60" s="23"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="7"/>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F61" s="23"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="7"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F62" s="23"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="7"/>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63" s="18"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F63" s="23"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="7"/>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A65" s="18"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A66" s="18"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="D66" s="7"/>
+      <c r="E66" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F66" s="23"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="19" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="str">
+        <f t="shared" ref="C67:C130" si="3">IF(ISBLANK(B67),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
+        <v/>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="9" t="str">
+        <f t="shared" ref="E67:E107" si="4">IF(ISBLANK(D67),"",D67)</f>
+        <v/>
+      </c>
+      <c r="F67" s="23"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="19" t="str">
+        <f t="shared" ref="I67:I130" si="5">IF(ISBLANK(H67),"","GENERAL")</f>
+        <v/>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A68" s="18"/>
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F68" s="23"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F69" s="23"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
+      <c r="C70" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F70" s="23"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F71" s="23"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
+      <c r="C72" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F72" s="23"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F73" s="23"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
+      <c r="C74" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
+      <c r="C75" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D75" s="7"/>
+      <c r="E75" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F75" s="23"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F76" s="23"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F77" s="23"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F78" s="23"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F79" s="23"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D80" s="7"/>
+      <c r="E80" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F80" s="23"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="7"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D81" s="7"/>
+      <c r="E81" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F81" s="23"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
+      <c r="C82" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F82" s="23"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
+      <c r="C83" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D83" s="7"/>
+      <c r="E83" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F83" s="23"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
+      <c r="C84" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D84" s="7"/>
+      <c r="E84" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="8"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D85" s="7"/>
+      <c r="E85" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F85" s="23"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J85" s="7"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
+      <c r="C86" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D86" s="7"/>
+      <c r="E86" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F86" s="23"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F87" s="23"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J87" s="7"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
+      <c r="C88" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F88" s="23"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J88" s="7"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F89" s="23"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J89" s="7"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="18"/>
+      <c r="C90" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F90" s="23"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J90" s="7"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="7"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J91" s="7"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="7"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F92" s="23"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J92" s="7"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="7"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="18"/>
+      <c r="C93" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F93" s="23"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J93" s="7"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F94" s="23"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="7"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A95" s="18"/>
+      <c r="B95" s="18"/>
+      <c r="C95" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F95" s="23"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J95" s="7"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="7"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="18"/>
+      <c r="C96" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D96" s="7"/>
+      <c r="E96" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F96" s="23"/>
+      <c r="G96" s="7"/>
+      <c r="H96" s="7"/>
+      <c r="I96" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J96" s="7"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="7"/>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" s="18"/>
+      <c r="B97" s="18"/>
+      <c r="C97" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D97" s="7"/>
+      <c r="E97" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F97" s="23"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7"/>
+      <c r="I97" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J97" s="7"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="7"/>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="18"/>
+      <c r="C98" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D98" s="7"/>
+      <c r="E98" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F98" s="23"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="7"/>
+      <c r="I98" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="7"/>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="18"/>
+      <c r="C99" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F99" s="23"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7"/>
+      <c r="I99" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J99" s="7"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="7"/>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="18"/>
+      <c r="C100" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F100" s="23"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7"/>
+      <c r="I100" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J100" s="7"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="7"/>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A101" s="18"/>
+      <c r="B101" s="18"/>
+      <c r="C101" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D101" s="7"/>
+      <c r="E101" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J101" s="7"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="7"/>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="18"/>
+      <c r="C102" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D102" s="7"/>
+      <c r="E102" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F102" s="23"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J102" s="7"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="7"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="18"/>
+      <c r="C103" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D103" s="7"/>
+      <c r="E103" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F103" s="23"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="7"/>
+      <c r="I103" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J103" s="7"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="7"/>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" s="18"/>
+      <c r="B104" s="18"/>
+      <c r="C104" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D104" s="7"/>
+      <c r="E104" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F104" s="23"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="7"/>
+      <c r="I104" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="7"/>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="18"/>
+      <c r="C105" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D105" s="7"/>
+      <c r="E105" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="7"/>
+      <c r="I105" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J105" s="7"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="7"/>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A106" s="18"/>
+      <c r="B106" s="18"/>
+      <c r="C106" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D106" s="7"/>
+      <c r="E106" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F106" s="23"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="7"/>
+      <c r="I106" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J106" s="7"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="7"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
+      <c r="C107" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D107" s="7"/>
+      <c r="E107" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="F107" s="23"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="7"/>
+      <c r="I107" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J107" s="7"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="7"/>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
+      <c r="C108" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D108" s="7"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7"/>
+      <c r="I108" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J108" s="7"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="7"/>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
+      <c r="C109" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D109" s="7"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="7"/>
+      <c r="I109" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J109" s="7"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="7"/>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
+      <c r="C110" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D110" s="7"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="7"/>
+      <c r="I110" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J110" s="7"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="7"/>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
+      <c r="C111" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D111" s="7"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7"/>
+      <c r="I111" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J111" s="7"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="7"/>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
+      <c r="C112" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D112" s="7"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J112" s="7"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="7"/>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
+      <c r="C113" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="7"/>
+      <c r="I113" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J113" s="7"/>
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="7"/>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
+      <c r="C114" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D114" s="7"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J114" s="7"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="18"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="7"/>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
+      <c r="C115" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D115" s="7"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
+      <c r="I115" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="7"/>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A116" s="18"/>
+      <c r="B116" s="18"/>
+      <c r="C116" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D116" s="7"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="23"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="7"/>
+      <c r="I116" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J116" s="7"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="18"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="7"/>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
+      <c r="C117" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D117" s="7"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="23"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J117" s="7"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="8"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="7"/>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="23"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J118" s="7"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="18"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="7"/>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
+      <c r="C119" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J119" s="7"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="7"/>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
+      <c r="C120" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="23"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7"/>
+      <c r="I120" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J120" s="7"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="18"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="7"/>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
+      <c r="C121" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J121" s="7"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="8"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="7"/>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
+      <c r="C122" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D122" s="7"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="23"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J122" s="7"/>
+      <c r="K122" s="18"/>
+      <c r="L122" s="18"/>
+      <c r="M122" s="8"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="7"/>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
+      <c r="C123" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D123" s="7"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J123" s="7"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="7"/>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
+      <c r="C124" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D124" s="7"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J124" s="7"/>
+      <c r="K124" s="18"/>
+      <c r="L124" s="18"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="7"/>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
+      <c r="C125" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J125" s="7"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="7"/>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
+      <c r="C126" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="23"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J126" s="7"/>
+      <c r="K126" s="18"/>
+      <c r="L126" s="18"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="7"/>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
+      <c r="C127" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D127" s="7"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="23"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="7"/>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
+      <c r="C128" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D128" s="7"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="23"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="7"/>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
+      <c r="C129" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="23"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J129" s="7"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="7"/>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
+      <c r="C130" s="19" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="19" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="J130" s="7"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="7"/>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A131" s="18"/>
+      <c r="B131" s="18"/>
+      <c r="C131" s="19" t="str">
+        <f t="shared" ref="C131:C150" si="6">IF(ISBLANK(B131),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
+        <v/>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="19" t="str">
+        <f t="shared" ref="I131:I150" si="7">IF(ISBLANK(H131),"","GENERAL")</f>
+        <v/>
+      </c>
+      <c r="J131" s="7"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="7"/>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A132" s="18"/>
+      <c r="B132" s="18"/>
+      <c r="C132" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="23"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J132" s="7"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="7"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A133" s="18"/>
+      <c r="B133" s="18"/>
+      <c r="C133" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="23"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J133" s="7"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="7"/>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A134" s="18"/>
+      <c r="B134" s="18"/>
+      <c r="C134" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J134" s="7"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="7"/>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A135" s="18"/>
+      <c r="B135" s="18"/>
+      <c r="C135" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D135" s="7"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J135" s="7"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="7"/>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A136" s="18"/>
+      <c r="B136" s="18"/>
+      <c r="C136" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D136" s="7"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="23"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J136" s="7"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="7"/>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A137" s="18"/>
+      <c r="B137" s="18"/>
+      <c r="C137" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D137" s="7"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="23"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J137" s="7"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="7"/>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A138" s="18"/>
+      <c r="B138" s="18"/>
+      <c r="C138" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D138" s="7"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="23"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="7"/>
+      <c r="I138" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J138" s="7"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18"/>
+      <c r="M138" s="8"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="7"/>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A139" s="18"/>
+      <c r="B139" s="18"/>
+      <c r="C139" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D139" s="7"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J139" s="7"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="8"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="7"/>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A140" s="18"/>
+      <c r="B140" s="18"/>
+      <c r="C140" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D140" s="7"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="23"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J140" s="7"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="7"/>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A141" s="18"/>
+      <c r="B141" s="18"/>
+      <c r="C141" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D141" s="7"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J141" s="7"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="7"/>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A142" s="18"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D142" s="7"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="23"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J142" s="7"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="7"/>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A143" s="18"/>
+      <c r="B143" s="18"/>
+      <c r="C143" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J143" s="7"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="7"/>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A144" s="18"/>
+      <c r="B144" s="18"/>
+      <c r="C144" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D144" s="7"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J144" s="7"/>
+      <c r="K144" s="18"/>
+      <c r="L144" s="18"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="7"/>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A145" s="18"/>
+      <c r="B145" s="18"/>
+      <c r="C145" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D145" s="7"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J145" s="7"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="18"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="7"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A146" s="18"/>
+      <c r="B146" s="18"/>
+      <c r="C146" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D146" s="7"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J146" s="7"/>
+      <c r="K146" s="18"/>
+      <c r="L146" s="18"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="7"/>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A147" s="18"/>
+      <c r="B147" s="18"/>
+      <c r="C147" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D147" s="7"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="23"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" s="18"/>
+      <c r="L147" s="18"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="7"/>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A148" s="18"/>
+      <c r="B148" s="18"/>
+      <c r="C148" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D148" s="7"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="23"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J148" s="7"/>
+      <c r="K148" s="18"/>
+      <c r="L148" s="18"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="7"/>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A149" s="18"/>
+      <c r="B149" s="18"/>
+      <c r="C149" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D149" s="7"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J149" s="7"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="7"/>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="19" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="D150" s="7"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="23"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="19" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="J150" s="7"/>
+      <c r="K150" s="18"/>
+      <c r="L150" s="18"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="7"/>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N151" s="4"/>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N152" s="4"/>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N153" s="4"/>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N154" s="4"/>
+    </row>
+    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N155" s="4"/>
+    </row>
+    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N156" s="4"/>
+    </row>
+    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N157" s="4"/>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N158" s="4"/>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N159" s="4"/>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N160" s="4"/>
+    </row>
+    <row r="161" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N161" s="4"/>
+    </row>
+    <row r="162" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N162" s="4"/>
+    </row>
+    <row r="163" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N163" s="4"/>
+    </row>
+    <row r="164" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N164" s="4"/>
+    </row>
+    <row r="165" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N165" s="4"/>
+    </row>
+    <row r="166" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N166" s="4"/>
+    </row>
+    <row r="167" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N167" s="4"/>
+    </row>
+    <row r="168" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N168" s="4"/>
+    </row>
+    <row r="169" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N169" s="4"/>
+    </row>
+    <row r="170" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N170" s="4"/>
+    </row>
+    <row r="171" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N171" s="4"/>
+    </row>
+    <row r="172" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N172" s="4"/>
+    </row>
+    <row r="173" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N173" s="4"/>
+    </row>
+    <row r="174" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N174" s="4"/>
+    </row>
+    <row r="175" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N175" s="4"/>
+    </row>
+    <row r="176" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N176" s="4"/>
+    </row>
+    <row r="177" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N177" s="4"/>
+    </row>
+    <row r="178" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N178" s="4"/>
+    </row>
+    <row r="179" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N179" s="4"/>
+    </row>
+    <row r="180" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N180" s="4"/>
+    </row>
+    <row r="181" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N181" s="4"/>
+    </row>
+    <row r="182" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N182" s="4"/>
+    </row>
+    <row r="183" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N183" s="4"/>
+    </row>
+    <row r="184" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N184" s="4"/>
+    </row>
+    <row r="185" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N185" s="4"/>
+    </row>
+    <row r="186" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N186" s="4"/>
+    </row>
+    <row r="187" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N187" s="4"/>
+    </row>
+    <row r="188" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N188" s="4"/>
+    </row>
+    <row r="189" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N189" s="4"/>
+    </row>
+    <row r="190" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N190" s="4"/>
+    </row>
+    <row r="191" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N191" s="4"/>
+    </row>
+    <row r="192" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N192" s="4"/>
+    </row>
+    <row r="193" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N193" s="4"/>
+    </row>
+    <row r="194" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N194" s="4"/>
+    </row>
+    <row r="195" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N195" s="4"/>
+    </row>
+    <row r="196" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N196" s="4"/>
+    </row>
+    <row r="197" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N197" s="4"/>
+    </row>
+    <row r="198" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N198" s="4"/>
+    </row>
+    <row r="199" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N199" s="4"/>
+    </row>
+    <row r="200" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N200" s="4"/>
+    </row>
+    <row r="201" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N201" s="4"/>
+    </row>
+    <row r="202" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N202" s="4"/>
+    </row>
+    <row r="203" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N203" s="4"/>
+    </row>
+    <row r="204" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N204" s="4"/>
+    </row>
+    <row r="205" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N205" s="4"/>
+    </row>
+    <row r="206" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N206" s="4"/>
+    </row>
+    <row r="207" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N207" s="4"/>
+    </row>
+    <row r="208" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N208" s="4"/>
+    </row>
+    <row r="209" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N209" s="4"/>
+    </row>
+    <row r="210" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N210" s="4"/>
+    </row>
+    <row r="211" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N211" s="4"/>
+    </row>
+    <row r="212" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N212" s="4"/>
+    </row>
+    <row r="213" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N213" s="4"/>
+    </row>
+    <row r="214" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N214" s="4"/>
+    </row>
+    <row r="215" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N215" s="4"/>
+    </row>
+    <row r="216" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N216" s="4"/>
+    </row>
+    <row r="217" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N217" s="4"/>
+    </row>
+    <row r="218" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N218" s="4"/>
+    </row>
+    <row r="219" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N219" s="4"/>
+    </row>
+    <row r="220" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N220" s="4"/>
+    </row>
+    <row r="221" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N221" s="4"/>
+    </row>
+    <row r="222" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N222" s="4"/>
+    </row>
+    <row r="223" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N223" s="4"/>
+    </row>
+    <row r="224" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N224" s="4"/>
+    </row>
+    <row r="225" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N225" s="4"/>
+    </row>
+    <row r="226" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N226" s="4"/>
+    </row>
+    <row r="227" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N227" s="4"/>
+    </row>
+    <row r="228" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N228" s="4"/>
+    </row>
+    <row r="229" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N229" s="4"/>
+    </row>
+    <row r="230" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N230" s="4"/>
+    </row>
+    <row r="231" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N231" s="4"/>
+    </row>
+    <row r="232" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N232" s="4"/>
+    </row>
+    <row r="233" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N233" s="4"/>
+    </row>
+    <row r="234" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N234" s="4"/>
+    </row>
+    <row r="235" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N235" s="4"/>
+    </row>
+    <row r="236" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N236" s="4"/>
+    </row>
+    <row r="237" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N237" s="4"/>
+    </row>
+    <row r="238" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N238" s="4"/>
+    </row>
+    <row r="239" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N239" s="4"/>
+    </row>
+    <row r="240" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N240" s="4"/>
+    </row>
+    <row r="241" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N241" s="4"/>
+    </row>
+    <row r="242" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N242" s="4"/>
+    </row>
+    <row r="243" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N243" s="4"/>
+    </row>
+    <row r="244" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N244" s="4"/>
+    </row>
+    <row r="245" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N245" s="4"/>
+    </row>
+    <row r="246" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N246" s="4"/>
+    </row>
+    <row r="247" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N247" s="4"/>
+    </row>
+    <row r="248" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N248" s="4"/>
+    </row>
+    <row r="249" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N249" s="4"/>
+    </row>
+    <row r="250" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N250" s="4"/>
+    </row>
+    <row r="251" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N251" s="4"/>
+    </row>
+    <row r="252" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N252" s="4"/>
+    </row>
+    <row r="253" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N253" s="4"/>
+    </row>
+    <row r="254" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N254" s="4"/>
+    </row>
+    <row r="255" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N255" s="4"/>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N256" s="4"/>
+    </row>
+    <row r="257" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N257" s="4"/>
+    </row>
+    <row r="258" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N258" s="4"/>
+    </row>
+    <row r="259" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N259" s="4"/>
+    </row>
+    <row r="260" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N260" s="4"/>
+    </row>
+    <row r="261" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N261" s="4"/>
+    </row>
+    <row r="262" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N262" s="4"/>
+    </row>
+    <row r="263" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N263" s="4"/>
+    </row>
+    <row r="264" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N264" s="4"/>
+    </row>
+    <row r="265" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N265" s="4"/>
+    </row>
+    <row r="266" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N266" s="4"/>
+    </row>
+    <row r="267" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N267" s="4"/>
+    </row>
+    <row r="268" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N268" s="4"/>
+    </row>
+    <row r="269" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N269" s="4"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0"/>
+  <conditionalFormatting sqref="A2:B150 F2:H150 J2:N150 D2:D150">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C4">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E150 I2:I150 C5:C150">
+    <cfRule type="expression" dxfId="1" priority="7">
+      <formula>$A2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="5">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E107" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>IF(ISBLANK(D2)," ",D2)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="End Date has to equal or higher than Start Date" sqref="N2:N269" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>IF(N2&gt;=M2,N2,"ERORR")</formula1>
+    </dataValidation>
+    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Past date is not allowed." sqref="M2:M150" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>TODAY()</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B150" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>INDIRECT($A2)</formula1>
+    </dataValidation>
+    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Only numbers allowed &amp; give the duration in Seconds only" sqref="F2:F150" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>IF(F2&gt;0,MOD(F2,5)=0,"")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>Master!$L$3:$L$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>J2:J107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>Master!$I$3:$I$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
+          <x14:formula1>
+            <xm:f>Master!$J$3:$J$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
+          <x14:formula1>
+            <xm:f>Master!$A$3:$A$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000009000000}">
+          <x14:formula1>
+            <xm:f>Master!$M$3:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+          <x14:formula1>
+            <xm:f>Master!$N$3:$N$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L150</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2890,94 +5525,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="15" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="12">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="12">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>171</v>
+      <c r="B7" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="12">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2988,11 +5623,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N159"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3011,39 +5646,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="29" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="28" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="2" t="s">
         <v>65</v>
       </c>
@@ -3056,16 +5691,16 @@
       <c r="E2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="F2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B3" t="s">
@@ -3080,13 +5715,13 @@
       <c r="E3" t="s">
         <v>72</v>
       </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="F3" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="6" t="s">
         <v>148</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -3095,15 +5730,15 @@
       <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B4" t="s">
@@ -3118,10 +5753,10 @@
       <c r="E4" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="6" t="s">
         <v>149</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -3130,15 +5765,15 @@
       <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B5" t="s">
@@ -3161,7 +5796,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B6" t="s">
@@ -4275,240 +6910,11 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="J1:J2"/>
   </mergeCells>
+  <conditionalFormatting sqref="F3">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$A3&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="17" t="str">
-        <f>IF(ISBLANK(B1),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
-        <v>ZEE ENTERTAINMENT ENTERPRISES LTD.</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="17" t="str">
-        <f>IF(ISBLANK(D1),"",D1)</f>
-        <v>Test 1</v>
-      </c>
-      <c r="F1" s="21">
-        <v>10</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I1" s="17" t="str">
-        <f>IF(ISBLANK(H1),"","GENERAL")</f>
-        <v>GENERAL</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M1" s="23">
-        <v>45214</v>
-      </c>
-      <c r="N1" s="23">
-        <v>45217</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="17" t="str">
-        <f>IF(ISBLANK(B2),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
-        <v>ZEE ENTERTAINMENT ENTERPRISES LTD.</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E2" s="7" t="str">
-        <f>IF(ISBLANK(D2),"",D2)</f>
-        <v>Test 2</v>
-      </c>
-      <c r="F2" s="21">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="17" t="str">
-        <f>IF(ISBLANK(H2),"","GENERAL")</f>
-        <v>GENERAL</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="L2" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="M2" s="23">
-        <v>45217</v>
-      </c>
-      <c r="N2" s="23">
-        <v>45218</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="17" t="str">
-        <f>IF(ISBLANK(B3),"","ZEE ENTERTAINMENT ENTERPRISES LTD.")</f>
-        <v>ZEE ENTERTAINMENT ENTERPRISES LTD.</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="7" t="str">
-        <f>IF(ISBLANK(D3),"",D3)</f>
-        <v>Test 3</v>
-      </c>
-      <c r="F3" s="21">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="I3" s="17" t="str">
-        <f>IF(ISBLANK(H3),"","GENERAL")</f>
-        <v>GENERAL</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="M3" s="24">
-        <v>45214</v>
-      </c>
-      <c r="N3" s="24">
-        <v>45215</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:B3 D1:D3 J1:N3 F1:H3">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C3 E1:E3 I1:I3">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$A1&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B3">
-      <formula1>INDIRECT($A1)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="End Date has to equal or higher than Start Date" sqref="N1:N3">
-      <formula1>IF(N1&gt;=M1,N1,"ERORR")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E3">
-      <formula1>IF(ISBLANK(D1)," ",D1)</formula1>
-    </dataValidation>
-    <dataValidation type="custom" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Only numbers allowed &amp; give the duration in Seconds only" sqref="F1:F3">
-      <formula1>IF(F1&gt;0,MOD(F1,5)=0,"")</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Past date is not allowed." sqref="M1:M3">
-      <formula1>TODAY()</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$N$3:$N$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>L1:L3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$M$3:$M$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>K1:K3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$A$3:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>A1:A3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$J$3:$J$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>H1:H3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$I$3:$I$4</xm:f>
-          </x14:formula1>
-          <xm:sqref>G1:G3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Master!$L$3:$L$38</xm:f>
-          </x14:formula1>
-          <xm:sqref>J1:J3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/assets/files/Filler.xlsx
+++ b/assets/files/Filler.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/AUTO ID/Go Live Bulk ID Generation Excel Sheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/Bulk ID Generation Excel Modification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{61A7FE77-0F6D-447B-8052-B679A4905183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8BD446D-D2CD-406F-8B88-911D13F34AB3}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{A0E5F821-C7DA-4AF4-8900-2FABDD12D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110D9CE5-EDCE-4CE5-9A98-06CCEDC4847E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC089CAA-30D1-4A15-9BBA-32AD01FD78C6}"/>
   </bookViews>
@@ -58,7 +58,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Please select ZEE TELEFILMS LTD for now</t>
         </r>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Auto Fetch Formula Do not Delete</t>
         </r>
@@ -86,7 +86,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Formula Do Not Delete
 </t>
@@ -101,7 +101,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Auto fetch formula Do not delete</t>
         </r>
@@ -115,7 +115,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Please select COLOR option as of now</t>
         </r>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
   <si>
     <t>Location</t>
   </si>
@@ -669,6 +669,9 @@
   <si>
     <t>SD</t>
   </si>
+  <si>
+    <t>ZEE CINEMA HD MALAY</t>
+  </si>
 </sst>
 </file>
 
@@ -726,7 +729,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1308,7 +1311,7 @@
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -68102,7 +68105,7 @@
       <c r="P2225" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="TaX+HXAZPvEZEAtjMplKnMFQI9lCIL+pnbrqUyoyhV9CwLpFk11yNvTtTCtyTJ18KOmsVoNzEWWpZ+MyzjwiXQ==" saltValue="kzFqAxSTo9hBiu0Tl3sahQ==" spinCount="100000" sheet="1" formatColumns="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="bpKQMtJ1a5rvmSUR6Q9+OojbPt7NkQ5NgTK0qO4yRomTQG9+6AlT1yed7LJxeV4EKfxiY4sihMTORV8ECor9Xg==" saltValue="BaOIoRgUMRSVOHskAV/9LA==" spinCount="100000" sheet="1" formatColumns="0"/>
   <conditionalFormatting sqref="A2:B2225 D2:D2225 G2:I2225 K2:O2225">
     <cfRule type="expression" dxfId="3" priority="5">
       <formula>$A2&lt;&gt;""</formula>
@@ -68302,8 +68305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE34-A5CB-4FD5-B856-0267076385A6}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A58" zoomScale="92" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -69027,7 +69030,9 @@
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B62" s="4"/>
+      <c r="B62" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B63" s="4"/>
@@ -69322,7 +69327,7 @@
       <c r="B159" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="4/8D8Q9L3ehT74jrStUOK9h0woJAP1oVokiMxTh2eH58OqaaalXxlM7YWF1/AyPXoQnojuzFW5QlLr1VOzan7Q==" saltValue="Z9ttwIBxOyL4Nccp9QdW7Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="jLs0PRFnXNhPA3DtbY4OSYS9ApGoUNOR5+fHXJ4f+lGqVFIl31/fS3QOrQXof47wsvruGfOYoxAZI044kR4u6A==" saltValue="eEMTPuVBlsR/mRDlAfn3mg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>

--- a/assets/files/Filler.xlsx
+++ b/assets/files/Filler.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zeel-my.sharepoint.com/personal/ashutosh_mhatre_zee_com/Documents/Bulk ID Generation Excel Modification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{A0E5F821-C7DA-4AF4-8900-2FABDD12D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{110D9CE5-EDCE-4CE5-9A98-06CCEDC4847E}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{A0E5F821-C7DA-4AF4-8900-2FABDD12D796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5EB4BB1-C4A7-4C9F-A9A6-C3BFA27246C9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FC089CAA-30D1-4A15-9BBA-32AD01FD78C6}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Master" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="AFRICAS">Master!$E$3:$E$11</definedName>
+    <definedName name="AFRICAS">Master!$E$3:$E$13</definedName>
     <definedName name="AMERICAS">Master!$D$3:$D$47</definedName>
     <definedName name="ASIA">Master!$B$3:$B$159</definedName>
     <definedName name="EUROPE">Master!$C$3:$C$17</definedName>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
   <si>
     <t>Location</t>
   </si>
@@ -672,6 +672,18 @@
   <si>
     <t>ZEE CINEMA HD MALAY</t>
   </si>
+  <si>
+    <t>LIVING FOODZ HD</t>
+  </si>
+  <si>
+    <t>ZEE PUNJAB HARYANA HIMACHAL</t>
+  </si>
+  <si>
+    <t>ZEE FAMILY</t>
+  </si>
+  <si>
+    <t>ZEE ZONKE</t>
+  </si>
 </sst>
 </file>
 
@@ -875,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -945,6 +957,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1007,6 +1021,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,7 +1329,7 @@
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -68305,8 +68323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8479CE34-A5CB-4FD5-B856-0267076385A6}">
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="92" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -68326,40 +68344,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="29" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="29" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
+      <c r="A2" s="30"/>
       <c r="B2" s="24" t="s">
         <v>64</v>
       </c>
@@ -68375,22 +68393,22 @@
       <c r="F2" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
+      <c r="G2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="27" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="4" t="s">
@@ -68399,7 +68417,7 @@
       <c r="E3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="28" t="s">
         <v>167</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -68429,18 +68447,18 @@
         <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>71</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
+        <v>182</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="28" t="s">
         <v>168</v>
       </c>
       <c r="G4" s="4"/>
@@ -68468,18 +68486,18 @@
         <v>66</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="28" t="s">
         <v>169</v>
       </c>
       <c r="G5" s="4"/>
@@ -68495,18 +68513,18 @@
         <v>67</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="27" t="s">
         <v>79</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="28" t="s">
         <v>170</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -68521,18 +68539,18 @@
         <v>166</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>82</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="28" t="s">
         <v>171</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -68544,16 +68562,16 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="25"/>
+        <v>82</v>
+      </c>
+      <c r="C8" s="27"/>
       <c r="D8" s="4" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="28" t="s">
         <v>172</v>
       </c>
       <c r="L8" s="1" t="s">
@@ -68565,16 +68583,16 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="C9" s="27"/>
       <c r="D9" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="28" t="s">
         <v>173</v>
       </c>
       <c r="L9" s="1" t="s">
@@ -68586,11 +68604,11 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B10" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="25"/>
+        <v>92</v>
+      </c>
+      <c r="C10" s="27"/>
       <c r="D10" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>91</v>
@@ -68604,11 +68622,11 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="25"/>
+        <v>117</v>
+      </c>
+      <c r="C11" s="27"/>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>94</v>
@@ -68622,11 +68640,14 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C12" s="25"/>
+        <v>127</v>
+      </c>
+      <c r="C12" s="27"/>
       <c r="D12" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>25</v>
@@ -68637,11 +68658,14 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="25"/>
+        <v>105</v>
+      </c>
+      <c r="C13" s="27"/>
       <c r="D13" s="4" t="s">
-        <v>97</v>
+        <v>89</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>27</v>
@@ -68652,11 +68676,11 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="25"/>
+        <v>102</v>
+      </c>
+      <c r="C14" s="27"/>
       <c r="D14" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>29</v>
@@ -68667,11 +68691,11 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="25"/>
+        <v>181</v>
+      </c>
+      <c r="C15" s="27"/>
       <c r="D15" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>31</v>
@@ -68682,11 +68706,11 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="25"/>
+        <v>129</v>
+      </c>
+      <c r="C16" s="27"/>
       <c r="D16" s="4" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>33</v>
@@ -68697,11 +68721,11 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="25"/>
+        <v>95</v>
+      </c>
+      <c r="C17" s="27"/>
       <c r="D17" s="4" t="s">
-        <v>74</v>
+        <v>168</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>35</v>
@@ -68712,9 +68736,11 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>96</v>
+      </c>
       <c r="L18" s="1" t="s">
         <v>37</v>
       </c>
@@ -68724,9 +68750,11 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B19" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="L19" s="1" t="s">
         <v>39</v>
       </c>
@@ -68736,43 +68764,51 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>97</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="M20" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="M21" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B22" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>126</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="M22" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B23" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="M23" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B24" s="4" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D24" s="4"/>
       <c r="M24" s="1" t="s">
@@ -68781,7 +68817,7 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B25" s="4" t="s">
-        <v>111</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4"/>
       <c r="M25" s="1" t="s">
@@ -68790,7 +68826,7 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B26" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D26" s="4"/>
       <c r="M26" s="1" t="s">
@@ -68799,7 +68835,7 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="D27" s="4"/>
       <c r="M27" s="1" t="s">
@@ -68808,7 +68844,7 @@
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B28" s="4" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D28" s="4"/>
       <c r="M28" s="1" t="s">
@@ -68817,7 +68853,7 @@
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="D29" s="4"/>
       <c r="M29" s="1" t="s">
@@ -68826,7 +68862,7 @@
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B30" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4"/>
       <c r="M30" s="1" t="s">
@@ -68835,7 +68871,7 @@
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B31" s="4" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="D31" s="4"/>
       <c r="M31" s="1" t="s">
@@ -68844,7 +68880,7 @@
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B32" s="4" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D32" s="4"/>
       <c r="M32" s="1" t="s">
@@ -68853,7 +68889,7 @@
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" s="4" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="D33" s="4"/>
       <c r="M33" s="1" t="s">
@@ -68862,7 +68898,7 @@
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D34" s="4"/>
       <c r="M34" s="1" t="s">
@@ -68871,7 +68907,7 @@
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B35" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D35" s="4"/>
       <c r="M35" s="1" t="s">
@@ -68880,7 +68916,7 @@
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B36" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D36" s="4"/>
       <c r="M36" s="1" t="s">
@@ -68889,7 +68925,7 @@
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4"/>
       <c r="M37" s="1" t="s">
@@ -68898,7 +68934,7 @@
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B38" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D38" s="4"/>
       <c r="M38" s="1" t="s">
@@ -68907,135 +68943,137 @@
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B39" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>70</v>
       </c>
       <c r="D41" s="4"/>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B42" s="4" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B43" s="4" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D43" s="4"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B44" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="D44" s="4"/>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B45" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="D45" s="4"/>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B46" s="4" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="D46" s="4"/>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B47" s="4" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D47" s="4"/>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B48" s="4" t="s">
-        <v>129</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B49" s="4" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B50" s="4" t="s">
-        <v>130</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B51" s="4" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B52" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B53" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B54" s="4" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B55" s="4" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B56" s="4" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B57" s="4" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B58" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B59" s="4" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B60" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B61" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B62" s="4" t="s">
-        <v>180</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B64" s="4"/>
@@ -69327,7 +69365,7 @@
       <c r="B159" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="jLs0PRFnXNhPA3DtbY4OSYS9ApGoUNOR5+fHXJ4f+lGqVFIl31/fS3QOrQXof47wsvruGfOYoxAZI044kR4u6A==" saltValue="eEMTPuVBlsR/mRDlAfn3mg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/IfF+o3QpmM84ZnRooPsMEwoHqelWbD0AbHWS6qh+JmUzNVpti5rscGS65ubBUbJlFQ31sJSzddUzPZG0K/aQA==" saltValue="CoSpzUI4zPTuRQRQ9DIIPw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
